--- a/biology/Histoire de la zoologie et de la botanique/Jean-Claude_Delamétherie/Jean-Claude_Delamétherie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Claude_Delamétherie/Jean-Claude_Delamétherie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Claude_Delam%C3%A9therie</t>
+          <t>Jean-Claude_Delamétherie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude Delamétherie (ou de La Métherie ou de Lamétherie) est un naturaliste, un minéralogiste, un géologue et un paléontologue français, né le 4 septembre 1743 à La Clayette (Saône-et-Loire) et mort le 1er juillet 1817 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Delamétherie (ou de La Métherie ou de Lamétherie) est un naturaliste, un minéralogiste, un géologue et un paléontologue français, né le 4 septembre 1743 à La Clayette (Saône-et-Loire) et mort le 1er juillet 1817 à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Claude_Delam%C3%A9therie</t>
+          <t>Jean-Claude_Delamétherie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille de La Métherie a un rôle important dans la  région clayettoise[2] : au xvııe siècle Philibert de la Méthaireie est maître chirurgien à Paray-le-Monial. Le grand-père de Jean-Claude, Pierre, est docteur en médecine. son père, François, est également docteur en médecine. Il a 8 enfants dont Antoine de La Métherie, député du Tiers-État à l'Assemblée constituante puis au Corps législatif, Jean-Baptiste, avocat au parlement, maire de la Clayette, et Jean-Claude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille de La Métherie a un rôle important dans la  région clayettoise : au xvııe siècle Philibert de la Méthaireie est maître chirurgien à Paray-le-Monial. Le grand-père de Jean-Claude, Pierre, est docteur en médecine. son père, François, est également docteur en médecine. Il a 8 enfants dont Antoine de La Métherie, député du Tiers-État à l'Assemblée constituante puis au Corps législatif, Jean-Baptiste, avocat au parlement, maire de la Clayette, et Jean-Claude.
 Il commence à pratiquer la médecine en 1780. Il étudie la physiologie végétale et l’air.
 Favorable à la Révolution, il avait attaqué Condorcet et s’oppose aux Jacobins. La Terreur l’oblige à quitter Paris et il ne peut reprendre la publication du Journal de physique qu’en 1797. La mort de Louis Jean-Marie Daubenton lui donne l’espoir de le remplacer au Collège de France (1812), mais Georges Cuvier lui est préféré. Cuvier ne pouvant assurer toute sa charge, il lui cède l'enseignement de la géologie et de la minéralogie afin de l'honorer, ainsi que le tiers, puis les deux tiers, des revenus qui y sont rattachés.
 Delamétherie est l’un des premiers pédagogues de la géologie à faire des leçons sur le terrain.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Claude_Delam%C3%A9therie</t>
+          <t>Jean-Claude_Delamétherie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Delamétherie est l’éditeur du Journal de physique, de chimie, d'histoire naturelle et des arts à partir de 1785.
 Principes de la philosophie naturelle, 1re édition, 1777, 2e édition, 1787, 2 tomes
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Claude_Delam%C3%A9therie</t>
+          <t>Jean-Claude_Delamétherie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Minéralogie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit la description de plusieurs espèces minérales dont
 aluminilite, synonyme d'alunite
